--- a/2 Семестр/2.3.1/2.3.1.xlsx
+++ b/2 Семестр/2.3.1/2.3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polub\Desktop\ЛАБЫ\2 Семестр\2.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4604BFD9-2280-4041-A12C-83567D644189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FDA98B-AACE-4ACB-9972-9554C56F25F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t>Ухудшение</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>крест</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Pпр</t>
+  </si>
+  <si>
+    <t>W=</t>
+  </si>
+  <si>
+    <t>K=</t>
+  </si>
+  <si>
+    <t>сигмаW</t>
   </si>
 </sst>
 </file>
@@ -443,15 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U85"/>
+  <dimension ref="A1:AR84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="Y15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="33" max="33" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -461,7 +479,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,7 +508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -510,8 +528,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -537,7 +561,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -563,7 +587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -589,7 +613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>12</v>
       </c>
@@ -615,7 +639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>16</v>
       </c>
@@ -641,7 +665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -667,7 +691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>24</v>
       </c>
@@ -693,7 +717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>28</v>
       </c>
@@ -719,7 +743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>32</v>
       </c>
@@ -745,7 +769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>36</v>
       </c>
@@ -771,7 +795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>40</v>
       </c>
@@ -785,7 +809,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>45</v>
       </c>
@@ -793,20 +817,52 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH18">
+        <f>AVERAGE(Z19:Z24)</f>
+        <v>10</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK18">
+        <f>(AH22-AH18*AH19)/(AH20-AH18*AH18)</f>
+        <v>-0.19087733186565189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -839,13 +895,50 @@
         <f>(J23-J19*J20)/(J21-J19*J19)</f>
         <v>-0.12014223793972517</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f>B4-$T$3</f>
+        <v>70.5</v>
+      </c>
+      <c r="AB19">
+        <f>LN(AA19)</f>
+        <v>4.255612709818223</v>
+      </c>
+      <c r="AC19">
+        <f>Z19*Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f>AB19*AB19</f>
+        <v>18.1102395359664</v>
+      </c>
+      <c r="AE19">
+        <f>Z19*AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH19">
+        <f>AVERAGE(AB19:AB24)</f>
+        <v>2.509361657963566</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK19">
+        <f>SQRT((AH21-AH19*AH19)/(AH20-AH18*AH18)-AK18*AK18)/SQRT(6)</f>
+        <v>8.8728944661834834E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <f>LN(B4)</f>
+        <f t="shared" ref="C20:C25" si="0">LN(B4)</f>
         <v>4.3438054218536841</v>
       </c>
       <c r="D20">
@@ -878,29 +971,59 @@
         <f>SQRT((J22-J20*J20)/(J21-J19*J19)-M19*M19)/SQRT(6)</f>
         <v>1.0278918379924118E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z20">
+        <v>4</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ref="AA20:AA31" si="1">B5-$T$3</f>
+        <v>50.5</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ref="AB20:AB29" si="2">LN(AA20)</f>
+        <v>3.9219733362813143</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" ref="AC20:AC29" si="3">Z20*Z20</f>
+        <v>16</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" ref="AD20:AD29" si="4">AB20*AB20</f>
+        <v>15.381874850501584</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" ref="AE20:AE29" si="5">Z20*AB20</f>
+        <v>15.687893345125257</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH20">
+        <f>AVERAGE(AC19:AC24)</f>
+        <v>146.66666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
-        <f>LN(B5)</f>
+        <f t="shared" si="0"/>
         <v>4.0430512678345503</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D30" si="0">$L$3/B5</f>
+        <f t="shared" ref="D21:D25" si="6">$L$3/B5</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E30" si="1">B21*B21</f>
+        <f t="shared" ref="E21:E30" si="7">B21*B21</f>
         <v>16</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F30" si="2">C21*C21</f>
+        <f t="shared" ref="F21:F30" si="8">C21*C21</f>
         <v>16.346263554338563</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G29" si="3">B21*C21</f>
+        <f t="shared" ref="G21:G29" si="9">B21*C21</f>
         <v>16.172205071338201</v>
       </c>
       <c r="I21" t="s">
@@ -910,29 +1033,59 @@
         <f>AVERAGE(E20:E25)</f>
         <v>146.66666666666666</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z21">
+        <v>8</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>2.917770732084279</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="4"/>
+        <v>8.5133860450076284</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="5"/>
+        <v>23.342165856674232</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH21">
+        <f>AVERAGE(AD19:AD24)</f>
+        <v>8.0192004471362477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22">
-        <f>LN(B6)</f>
+        <f t="shared" si="0"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.04</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10.361161575920939</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>25.751006598945605</v>
       </c>
       <c r="I22" t="s">
@@ -942,29 +1095,59 @@
         <f>AVERAGE(F20:F25)</f>
         <v>10.403745926133505</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z22">
+        <v>12</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="4"/>
+        <v>4.0598341821903414</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="5"/>
+        <v>24.178836246507174</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH22">
+        <f>AVERAGE(AE19:AE24)</f>
+        <v>16.186007759238574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>12</v>
       </c>
       <c r="C23">
-        <f>LN(B7)</f>
+        <f t="shared" si="0"/>
         <v>2.6390573296152584</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.9646235889960186</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>31.668687955383099</v>
       </c>
       <c r="I23" t="s">
@@ -974,64 +1157,161 @@
         <f>AVERAGE(G20:G25)</f>
         <v>25.53909739724951</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z23">
+        <v>16</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="2"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="4"/>
+        <v>1.5694150552333266</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="5"/>
+        <v>20.044207495925889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>16</v>
       </c>
       <c r="C24">
-        <f>LN(B8)</f>
+        <f t="shared" si="0"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
       <c r="F24">
+        <f t="shared" si="8"/>
+        <v>5.3018981104783993</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>36.841361487904734</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24">
+        <f>B9-$T$3</f>
+        <v>2</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="2"/>
-        <v>5.3018981104783993</v>
-      </c>
-      <c r="G24">
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="3"/>
-        <v>36.841361487904734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="4"/>
+        <v>0.48045301391820139</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="5"/>
+        <v>13.862943611198906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>20</v>
       </c>
       <c r="C25">
-        <f>LN(B9)</f>
+        <f t="shared" si="0"/>
         <v>2.1400661634962708</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.5798831841416474</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>42.801323269925419</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AG25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH25">
+        <f>AVERAGE(Z26:Z29)</f>
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK25">
+        <f>(AH29-AH25*AH26)/(AH27-AH25*AH25)</f>
+        <v>-2.741070217133177E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z26">
+        <v>24</v>
+      </c>
+      <c r="AA26">
+        <f>B10-$T$3</f>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="2"/>
+        <v>0.33647223662121317</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="4"/>
+        <v>0.11321356601688166</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="5"/>
+        <v>8.0753336789091161</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH26">
+        <f>AVERAGE(AB26:AB29)</f>
+        <v>0.15352599330487313</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK26">
+        <f>SQRT((AH28-AH26*AH26)/(AH27-AH25*AH25)-AK25*AK25)/SQRT(6)</f>
+        <v>1.547912909343347E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>24</v>
       </c>
@@ -1044,15 +1324,15 @@
         <v>0.12658227848101264</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>576</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.2719216664962456</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>49.604706227351429</v>
       </c>
       <c r="I27" t="s">
@@ -1069,8 +1349,38 @@
         <f>(J31-J27*J28)/(J29-J27*J27)</f>
         <v>-4.2237824589872021E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z27">
+        <v>28</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ref="AA27:AA31" si="10">B11-$T$3</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="2"/>
+        <v>0.18232155679395479</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="3"/>
+        <v>784</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="4"/>
+        <v>3.324115007177128E-2</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="5"/>
+        <v>5.1050035902307336</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH27">
+        <f>AVERAGE(AC26:AC29)</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>28</v>
       </c>
@@ -1083,7 +1393,7 @@
         <v>0.12987012987012986</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>784</v>
       </c>
       <c r="F28">
@@ -1091,7 +1401,7 @@
         <v>4.1665804309498498</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>57.154169208069874</v>
       </c>
       <c r="I28" t="s">
@@ -1108,8 +1418,38 @@
         <f>SQRT((J30-J28*J28)/(J29-J27*J27)-M27*M27)/SQRT(4)</f>
         <v>3.8137292348775984E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z28">
+        <v>32</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="10"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="2"/>
+        <v>9.5310179804324532E-2</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="4"/>
+        <v>9.0840303743326724E-3</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="5"/>
+        <v>3.049925753738385</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH28">
+        <f>AVERAGE(AD26:AD29)</f>
+        <v>3.8884686615746407E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>32</v>
       </c>
@@ -1122,15 +1462,15 @@
         <v>0.13157894736842105</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.113385312994768</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>64.900743913353125</v>
       </c>
       <c r="I29" t="s">
@@ -1140,8 +1480,52 @@
         <f>AVERAGE(E27:E30)</f>
         <v>920</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z29">
+        <v>36</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="3"/>
+        <v>1296</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH29">
+        <f>AVERAGE(AE26:AE29)</f>
+        <v>4.0575657557195584</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK29">
+        <f>AVERAGE(AK25,AK44)</f>
+        <v>-2.1741476918919152E-2</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR29">
+        <f>AVERAGE(AK18,AK36)</f>
+        <v>-0.18345365298553595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>36</v>
       </c>
@@ -1154,11 +1538,11 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1296</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.0598341821903414</v>
       </c>
       <c r="G30">
@@ -1172,8 +1556,22 @@
         <f>AVERAGE(F27:F30)</f>
         <v>4.1529303981578014</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AJ30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK30">
+        <f>SQRT(AK26*AK26+AK45*AK45)</f>
+        <v>2.1843115983783599E-3</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR30">
+        <f>SQRT(AK19*AK19+AK37*AK37)</f>
+        <v>1.3846275437991488E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="I31" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1580,7 @@
         <v>61.049032022073987</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>17</v>
       </c>
@@ -1194,8 +1592,22 @@
         <f>AVERAGE(M27,M46)</f>
         <v>-3.2210640372576801E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AJ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK32">
+        <f>1151*AK29*(-1)</f>
+        <v>25.024439933675943</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR32">
+        <f>1151*AR29*(-1)</f>
+        <v>211.15515458635187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="Q33" t="s">
         <v>18</v>
       </c>
@@ -1207,8 +1619,22 @@
         <f>AVERAGE(M28,M47)</f>
         <v>3.0144249885029545E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AJ33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK33">
+        <f>AK32*SQRT((AK30/AK29)^2 + (15/1151)^2)</f>
+        <v>2.5352058934921873</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR33">
+        <f>AR32*SQRT((AR30/AR29)^2 + (15/1151)^2)</f>
+        <v>16.172891133714955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="Q35" t="s">
         <v>19</v>
       </c>
@@ -1217,17 +1643,49 @@
         <v>9.6950608395563282</v>
       </c>
       <c r="U35">
-        <f t="shared" ref="T35:U35" si="4">(-1)*U33/U32*100</f>
+        <f t="shared" ref="U35" si="11">(-1)*U33/U32*100</f>
         <v>9.3584758130712231</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH36">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK36">
+        <f>(AH40-AH36*AH37)/(AH38-AH36*AH36)</f>
+        <v>-0.17602997410542004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -1260,13 +1718,50 @@
         <f>(J41-J37*J38)/(J39-J37*J37)</f>
         <v>-0.10316127496053562</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f>D4-$T$3</f>
+        <v>71.5</v>
+      </c>
+      <c r="AB37">
+        <f>LN(AA37)</f>
+        <v>4.2696974496999616</v>
+      </c>
+      <c r="AC37">
+        <f>Z37*Z37</f>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f>AB37*AB37</f>
+        <v>18.230316311974356</v>
+      </c>
+      <c r="AE37">
+        <f>Z37*AB37</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH37">
+        <f>AVERAGE(AB37:AB43)</f>
+        <v>2.2108171136816139</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK37">
+        <f>SQRT((AH39-AH37*AH37)/(AH38-AH36*AH36)-AK36*AK36)/SQRT(6)</f>
+        <v>1.0629726586168474E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <f>LN(D4)</f>
+        <f t="shared" ref="C38:C44" si="12">LN(D4)</f>
         <v>4.3567088266895917</v>
       </c>
       <c r="D38">
@@ -1299,29 +1794,59 @@
         <f>SQRT((J40-J38*J38)/(J39-J37*J37)-M37*M37)/SQRT(7)</f>
         <v>1.1370493052622681E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38:AA43" si="13">D5-$T$3</f>
+        <v>50.5</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ref="AB38:AE49" si="14">LN(AA38)</f>
+        <v>3.9219733362813143</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38:AC49" si="15">Z38*Z38</f>
+        <v>16</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ref="AD38:AD49" si="16">AB38*AB38</f>
+        <v>15.381874850501584</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ref="AE38:AE43" si="17">Z38*AB38</f>
+        <v>15.687893345125257</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH38">
+        <f>AVERAGE(AC37:AC43)</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39">
-        <f>LN(D5)</f>
+        <f t="shared" si="12"/>
         <v>4.0430512678345503</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D50" si="5">$L$3/D5</f>
+        <f t="shared" ref="D39:D44" si="18">$L$3/D5</f>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E48" si="6">B39*B39</f>
+        <f t="shared" ref="E39:E44" si="19">B39*B39</f>
         <v>16</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:F48" si="7">C39*C39</f>
+        <f t="shared" ref="F39:F44" si="20">C39*C39</f>
         <v>16.346263554338563</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G42" si="8">B39*C39</f>
+        <f t="shared" ref="G39:G42" si="21">B39*C39</f>
         <v>16.172205071338201</v>
       </c>
       <c r="I39" t="s">
@@ -1331,29 +1856,59 @@
         <f>AVERAGE(E38:E44)</f>
         <v>208</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="13"/>
+        <v>18.5</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="14"/>
+        <v>2.917770732084279</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="16"/>
+        <v>8.5133860450076284</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="17"/>
+        <v>23.342165856674232</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH39">
+        <f>AVERAGE(AD37:AD43)</f>
+        <v>6.914240201816944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>8</v>
       </c>
       <c r="C40">
-        <f>LN(D6)</f>
+        <f t="shared" si="12"/>
         <v>3.2188758248682006</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.04</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>10.361161575920939</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>25.751006598945605</v>
       </c>
       <c r="I40" t="s">
@@ -1363,29 +1918,59 @@
         <f>AVERAGE(F38:F44)</f>
         <v>9.5512598485277671</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z40">
+        <v>12</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="14"/>
+        <v>2.0149030205422647</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="16"/>
+        <v>4.0598341821903414</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="17"/>
+        <v>24.178836246507174</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH40">
+        <f>AVERAGE(AE37:AE43)</f>
+        <v>15.263887021432485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>12</v>
       </c>
       <c r="C41">
-        <f>LN(D7)</f>
+        <f t="shared" si="12"/>
         <v>2.6390573296152584</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>144</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.9646235889960186</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>31.668687955383099</v>
       </c>
       <c r="I41" t="s">
@@ -1395,89 +1980,209 @@
         <f>AVERAGE(G38:G44)</f>
         <v>29.020168769116161</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z41">
+        <v>16</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="13"/>
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="14"/>
+        <v>1.2527629684953681</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="15"/>
+        <v>256</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="16"/>
+        <v>1.5694150552333266</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="17"/>
+        <v>20.044207495925889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>16</v>
       </c>
       <c r="C42">
-        <f>LN(D8)</f>
+        <f t="shared" si="12"/>
         <v>2.3025850929940459</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.3018981104783993</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>36.841361487904734</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z42">
+        <v>20</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="14"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="16"/>
+        <v>0.48045301391820139</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="17"/>
+        <v>13.862943611198906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>20</v>
       </c>
       <c r="C43">
-        <f>LN(D9)</f>
+        <f t="shared" si="12"/>
         <v>2.1400661634962708</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.5798831841416474</v>
       </c>
       <c r="G43">
         <f>B43*C43</f>
         <v>42.801323269925419</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z43">
+        <v>24</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="14"/>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="15"/>
+        <v>576</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="16"/>
+        <v>0.16440195389316542</v>
+      </c>
+      <c r="AE43">
+        <f>Z43*AB43</f>
+        <v>9.7311625945959452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>24</v>
       </c>
       <c r="C44">
-        <f>LN(D10)</f>
+        <f t="shared" si="12"/>
         <v>2.0794415416798357</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>576</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>4.3240771252638117</v>
       </c>
       <c r="G44">
         <f>B44*C44</f>
         <v>49.906597000316054</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="AG44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH44">
+        <f>AVERAGE(Z45:Z49)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK44">
+        <f>(AH48-AH44*AH45)/(AH46-AH44*AH44)</f>
+        <v>-1.607225166650653E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z45">
+        <v>28</v>
+      </c>
+      <c r="AA45">
+        <f>D11-$T$3</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="14"/>
+        <v>0.18232155679395479</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="15"/>
+        <v>784</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="16"/>
+        <v>3.324115007177128E-2</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" ref="AE44:AE49" si="22">Z45*AB45</f>
+        <v>5.1050035902307336</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH45">
+        <f>AVERAGE(AB45:AB49)</f>
+        <v>5.3516280148955597E-2</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK45">
+        <f>SQRT((AH47-AH45*AH45)/(AH46-AH44*AH44)-AK44*AK44)/SQRT(6)</f>
+        <v>1.5411628025288049E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>28</v>
       </c>
@@ -1515,8 +2220,38 @@
         <f>(J50-J46*J47)/(J48-J46*J46)</f>
         <v>-2.218345615528158E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z46">
+        <v>32</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" ref="AA46:AA49" si="23">D12-$T$3</f>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="14"/>
+        <v>9.5310179804324532E-2</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="15"/>
+        <v>1024</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="16"/>
+        <v>9.0840303743326724E-3</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="22"/>
+        <v>3.049925753738385</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH46">
+        <f>AVERAGE(AC45:AC49)</f>
+        <v>1345.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>32</v>
       </c>
@@ -1529,15 +2264,15 @@
         <v>0.13157894736842105</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E50" si="9">B47*B47</f>
+        <f t="shared" ref="E47:E50" si="24">B47*B47</f>
         <v>1024</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F50" si="10">C47*C47</f>
+        <f t="shared" ref="F47:F50" si="25">C47*C47</f>
         <v>4.113385312994768</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G50" si="11">B47*C47</f>
+        <f t="shared" ref="G47:G50" si="26">B47*C47</f>
         <v>64.900743913353125</v>
       </c>
       <c r="I47" t="s">
@@ -1554,8 +2289,38 @@
         <f>SQRT((J49-J47*J47)/(J48-J46*J46)-M46*M46)/SQRT(5)</f>
         <v>2.2151207421283105E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="Z47">
+        <v>36</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="23"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="14"/>
+        <v>9.5310179804324532E-2</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="15"/>
+        <v>1296</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="16"/>
+        <v>9.0840303743326724E-3</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="22"/>
+        <v>3.4311664729556832</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH47">
+        <f>AVERAGE(AD45:AD49)</f>
+        <v>1.2502009816023918E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>36</v>
       </c>
@@ -1568,15 +2333,15 @@
         <v>0.13157894736842105</v>
       </c>
       <c r="E48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1296</v>
       </c>
       <c r="F48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>4.113385312994768</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>73.013336902522269</v>
       </c>
       <c r="I48" t="s">
@@ -1586,8 +2351,38 @@
         <f>AVERAGE(E46:E50)</f>
         <v>1345.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Z48">
+        <v>40</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="15"/>
+        <v>1600</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH48">
+        <f>AVERAGE(AE45:AE49)</f>
+        <v>1.3689745224645271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>40</v>
       </c>
@@ -1600,15 +2395,15 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1600</v>
       </c>
       <c r="F49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>4.0598341821903414</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>80.59612082169059</v>
       </c>
       <c r="I49" t="s">
@@ -1618,8 +2413,31 @@
         <f>AVERAGE(F46:F50)</f>
         <v>4.0918214860741697</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Z49">
+        <v>45</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="23"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="14"/>
+        <v>-0.10536051565782591</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="15"/>
+        <v>2025</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="16"/>
+        <v>1.1100838259682978E-2</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="22"/>
+        <v>-4.7412232046021661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>45</v>
       </c>
@@ -1632,15 +2450,15 @@
         <v>0.13513513513513511</v>
       </c>
       <c r="E50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>2025</v>
       </c>
       <c r="F50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>4.0059221912411189</v>
       </c>
       <c r="G50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>90.066600009455598</v>
       </c>
       <c r="I50" t="s">
@@ -1651,7 +2469,7 @@
         <v>73.146194171018294</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,13 +2477,13 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +2514,7 @@
         <v>0.8179564806054872</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0</v>
       </c>
@@ -1726,11 +2544,11 @@
         <v>16</v>
       </c>
       <c r="M58">
-        <f>SQRT((J60-J58*J58)/(J59-J57*J57)-M57*M57)/SQRT(7)</f>
-        <v>7.8568551909496461E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+        <f>SQRT((J60-J58*J58)/(J59-J57*J57)-M57*M57)/SQRT(11)</f>
+        <v>6.2676022270436432E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>9</v>
       </c>
@@ -1738,15 +2556,15 @@
         <v>12</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:F68" si="12">B59*B59</f>
+        <f t="shared" ref="E59:F68" si="27">B59*B59</f>
         <v>81</v>
       </c>
       <c r="F59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>144</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G68" si="13">B59*C59</f>
+        <f t="shared" ref="G59:G68" si="28">B59*C59</f>
         <v>108</v>
       </c>
       <c r="I59" t="s">
@@ -1757,7 +2575,7 @@
         <v>2786.7272727272725</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>18</v>
       </c>
@@ -1765,15 +2583,15 @@
         <v>20</v>
       </c>
       <c r="E60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>324</v>
       </c>
       <c r="F60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="G60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>360</v>
       </c>
       <c r="I60" t="s">
@@ -1784,7 +2602,7 @@
         <v>2327.9645454545457</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>27</v>
       </c>
@@ -1792,15 +2610,15 @@
         <v>28</v>
       </c>
       <c r="E61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>729</v>
       </c>
       <c r="F61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>784</v>
       </c>
       <c r="G61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>756</v>
       </c>
       <c r="I61" t="s">
@@ -1811,7 +2629,7 @@
         <v>2541.5454545454545</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>36</v>
       </c>
@@ -1819,19 +2637,19 @@
         <v>36</v>
       </c>
       <c r="E62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>1296</v>
       </c>
       <c r="F62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>1296</v>
       </c>
       <c r="G62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>1296</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>45</v>
       </c>
@@ -1839,7 +2657,7 @@
         <v>43</v>
       </c>
       <c r="E63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>2025</v>
       </c>
       <c r="F63">
@@ -1847,11 +2665,11 @@
         <v>1849</v>
       </c>
       <c r="G63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>1935</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>54</v>
       </c>
@@ -1859,15 +2677,15 @@
         <v>50</v>
       </c>
       <c r="E64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>2916</v>
       </c>
       <c r="F64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>2500</v>
       </c>
       <c r="G64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>2700</v>
       </c>
     </row>
@@ -1879,15 +2697,15 @@
         <v>57</v>
       </c>
       <c r="E65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>3969</v>
       </c>
       <c r="F65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>3249</v>
       </c>
       <c r="G65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>3591</v>
       </c>
     </row>
@@ -1899,15 +2717,15 @@
         <v>65</v>
       </c>
       <c r="E66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>5184</v>
       </c>
       <c r="F66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>4225</v>
       </c>
       <c r="G66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>4680</v>
       </c>
     </row>
@@ -1919,15 +2737,15 @@
         <v>72</v>
       </c>
       <c r="E67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>6561</v>
       </c>
       <c r="F67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>5184</v>
       </c>
       <c r="G67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>5832</v>
       </c>
     </row>
@@ -1939,15 +2757,15 @@
         <v>77</v>
       </c>
       <c r="E68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>7569</v>
       </c>
       <c r="F68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>5929</v>
       </c>
       <c r="G68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="28"/>
         <v>6699</v>
       </c>
     </row>
@@ -1966,7 +2784,7 @@
       </c>
       <c r="R70">
         <f>AVERAGE(M58,M75)</f>
-        <v>8.2769207639098348E-3</v>
+        <v>6.7720115232079055E-3</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
@@ -1975,7 +2793,7 @@
       </c>
       <c r="R72">
         <f>R70/R69*100</f>
-        <v>0.97071746377657087</v>
+        <v>0.79422167228393459</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
@@ -2045,8 +2863,8 @@
         <v>16</v>
       </c>
       <c r="M75">
-        <f>SQRT((J77-J75*J75)/(J76-J74*J74)-M74*M74)/SQRT(7)</f>
-        <v>8.6969863368700252E-3</v>
+        <f>SQRT((J77-J75*J75)/(J76-J74*J74)-M74*M74)/SQRT(10)</f>
+        <v>7.2764208193721687E-3</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
@@ -2057,15 +2875,15 @@
         <v>16</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76:E85" si="14">B76*B76</f>
+        <f t="shared" ref="E76:E85" si="29">B76*B76</f>
         <v>81</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76:F85" si="15">C76*C76</f>
+        <f t="shared" ref="F76:F79" si="30">C76*C76</f>
         <v>256</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76:G85" si="16">B76*C76</f>
+        <f t="shared" ref="G76:G85" si="31">B76*C76</f>
         <v>144</v>
       </c>
       <c r="I76" t="s">
@@ -2084,15 +2902,15 @@
         <v>25</v>
       </c>
       <c r="E77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>324</v>
       </c>
       <c r="F77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>625</v>
       </c>
       <c r="G77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>450</v>
       </c>
       <c r="I77" t="s">
@@ -2111,15 +2929,15 @@
         <v>33</v>
       </c>
       <c r="E78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>729</v>
       </c>
       <c r="F78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1089</v>
       </c>
       <c r="G78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>891</v>
       </c>
       <c r="I78" t="s">
@@ -2138,15 +2956,15 @@
         <v>41</v>
       </c>
       <c r="E79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>1296</v>
       </c>
       <c r="F79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>1681</v>
       </c>
       <c r="G79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>1476</v>
       </c>
     </row>
@@ -2158,7 +2976,7 @@
         <v>49</v>
       </c>
       <c r="E80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>2025</v>
       </c>
       <c r="F80">
@@ -2166,7 +2984,7 @@
         <v>2401</v>
       </c>
       <c r="G80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>2205</v>
       </c>
     </row>
@@ -2178,15 +2996,15 @@
         <v>57</v>
       </c>
       <c r="E81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>2916</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F85" si="17">C81*C81</f>
+        <f t="shared" ref="F81:F85" si="32">C81*C81</f>
         <v>3249</v>
       </c>
       <c r="G81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>3078</v>
       </c>
     </row>
@@ -2198,15 +3016,15 @@
         <v>64</v>
       </c>
       <c r="E82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>3969</v>
       </c>
       <c r="F82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>4096</v>
       </c>
       <c r="G82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>4032</v>
       </c>
     </row>
@@ -2218,15 +3036,15 @@
         <v>72</v>
       </c>
       <c r="E83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>5184</v>
       </c>
       <c r="F83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>5184</v>
       </c>
       <c r="G83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>5184</v>
       </c>
     </row>
@@ -2238,30 +3056,16 @@
         <v>78</v>
       </c>
       <c r="E84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>6241</v>
       </c>
       <c r="F84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>6084</v>
       </c>
       <c r="G84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>6162</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E85">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
